--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T07:50:24+00:00</t>
+    <t>2025-09-10T10:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,7 +568,7 @@
     <t>Commentaire relatif au séjour</t>
   </si>
   <si>
-    <t>Commentaire relatif au séjour.</t>
+    <t>Commentaire relatif au séjour et aux évènements.</t>
   </si>
   <si>
     <t>commentaire</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:00:26+00:00</t>
+    <t>2025-09-10T13:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T13:51:57+00:00</t>
+    <t>2025-09-11T08:12:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T08:12:08+00:00</t>
+    <t>2025-09-11T09:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T09:46:41+00:00</t>
+    <t>2025-09-15T07:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T07:08:09+00:00</t>
+    <t>2025-09-17T15:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:38:22+00:00</t>
+    <t>2025-09-18T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T09:40:01+00:00</t>
+    <t>2025-09-18T12:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T12:48:58+00:00</t>
+    <t>2025-09-18T14:47:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T14:47:30+00:00</t>
+    <t>2025-09-23T09:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T09:18:22+00:00</t>
+    <t>2025-09-23T12:45:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:45:16+00:00</t>
+    <t>2025-09-23T13:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:40:00+00:00</t>
+    <t>2025-09-24T08:59:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T08:59:11+00:00</t>
+    <t>2025-09-24T09:13:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:13:07+00:00</t>
+    <t>2025-09-25T09:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:00+00:00</t>
+    <t>2025-09-29T14:54:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:54:43+00:00</t>
+    <t>2025-09-30T08:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T08:07:48+00:00</t>
+    <t>2025-09-30T16:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T16:47:22+00:00</t>
+    <t>2025-10-01T14:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T14:45:31+00:00</t>
+    <t>2025-10-02T09:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:38:01+00:00</t>
+    <t>2025-10-02T12:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:26:13+00:00</t>
+    <t>2025-10-07T14:58:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:58:06+00:00</t>
+    <t>2025-10-08T14:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,7 +568,11 @@
     <t>Commentaire relatif au séjour</t>
   </si>
   <si>
-    <t>Commentaire relatif au séjour et aux évènements.</t>
+    <t xml:space="preserve">
+- **Séjour** : commentaire relatif au séjour.
+- **Événement** : commentaires sur le déroulé de l’évènement.
+- **Évaluation** : commentaire libre sur le contenu ou le résultat de l’évaluation.
+- **Champ évalué** : commentaire spécifique à un item ou sous-item évalué.</t>
   </si>
   <si>
     <t>commentaire</t>
@@ -626,21 +630,6 @@
     <t>PV1-19</t>
   </si>
   <si>
-    <t>Encounter.identifier:idStay</t>
-  </si>
-  <si>
-    <t>idStay</t>
-  </si>
-  <si>
-    <t>Identifiant métier unique du séjour</t>
-  </si>
-  <si>
-    <t>idSejour</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idStay.id</t>
-  </si>
-  <si>
     <t>Encounter.identifier.id</t>
   </si>
   <si>
@@ -660,9 +649,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Encounter.identifier:idStay.extension</t>
-  </si>
-  <si>
     <t>Encounter.identifier.extension</t>
   </si>
   <si>
@@ -678,9 +664,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Encounter.identifier:idStay.use</t>
-  </si>
-  <si>
     <t>Encounter.identifier.use</t>
   </si>
   <si>
@@ -709,9 +692,6 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:idStay.type</t>
   </si>
   <si>
     <t>Encounter.identifier.type</t>
@@ -731,6 +711,143 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.value</t>
+  </si>
+  <si>
+    <t>Format d'identifiant à respecter : 3+FINESS/identifiantLocalUsagerESSMS-SEJOUR-numeroDossier.</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay</t>
+  </si>
+  <si>
+    <t>idStay</t>
+  </si>
+  <si>
+    <t>Identifiant métier unique du séjour</t>
+  </si>
+  <si>
+    <t>idSejour</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.id</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.use</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:idStay.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -742,129 +859,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
     <t>Encounter.identifier:idStay.system</t>
   </si>
   <si>
-    <t>Encounter.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
     <t>Encounter.identifier:idStay.value</t>
   </si>
   <si>
-    <t>Encounter.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
     <t>Encounter.identifier:idStay.period</t>
   </si>
   <si>
-    <t>Encounter.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
     <t>Encounter.identifier:idStay.assigner</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Encounter.status</t>
@@ -2164,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4207,17 +4211,15 @@
         <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -4229,16 +4231,16 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4289,53 +4291,53 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4347,7 +4349,7 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>202</v>
@@ -4355,7 +4357,9 @@
       <c r="M19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4392,31 +4396,31 @@
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
@@ -4425,7 +4429,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4439,41 +4443,43 @@
         <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4497,43 +4503,43 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4542,21 +4548,21 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4573,25 +4579,25 @@
         <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4616,13 +4622,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4640,7 +4646,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4661,21 +4667,21 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>133</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4683,7 +4689,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -4698,19 +4704,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4720,10 +4726,10 @@
         <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>81</v>
@@ -4735,31 +4741,31 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4780,7 +4786,7 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4794,7 +4800,7 @@
         <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4817,20 +4823,18 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>81</v>
@@ -4878,7 +4882,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4899,21 +4903,21 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4936,17 +4940,15 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4959,7 +4961,7 @@
         <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>81</v>
@@ -4995,7 +4997,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5016,21 +5018,21 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5053,15 +5055,17 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5110,7 +5114,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5131,29 +5135,31 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -5168,17 +5174,15 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5227,13 +5231,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -5242,27 +5246,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>271</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5270,7 +5274,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5279,23 +5283,21 @@
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5320,13 +5322,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5344,10 +5346,10 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -5356,34 +5358,34 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5402,16 +5404,16 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5449,19 +5451,19 @@
         <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5473,7 +5475,7 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5482,7 +5484,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5493,10 +5495,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5513,22 +5515,26 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5552,13 +5558,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5576,7 +5582,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5588,7 +5594,7 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5597,32 +5603,32 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5631,21 +5637,23 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>81</v>
@@ -5669,13 +5677,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5693,19 +5701,19 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5714,56 +5722,56 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5776,7 +5784,7 @@
         <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>81</v>
@@ -5812,19 +5820,19 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5833,21 +5841,21 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5855,7 +5863,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
@@ -5867,18 +5875,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5891,7 +5901,7 @@
         <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>81</v>
@@ -5903,13 +5913,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5927,10 +5937,10 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>90</v>
@@ -5948,21 +5958,21 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5970,7 +5980,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
@@ -5982,16 +5992,16 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6042,10 +6052,10 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>90</v>
@@ -6063,21 +6073,21 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6085,7 +6095,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -6100,15 +6110,17 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6133,13 +6145,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6157,10 +6169,10 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>90</v>
@@ -6178,21 +6190,21 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>306</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6200,30 +6212,32 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6248,13 +6262,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6272,13 +6286,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -6290,24 +6304,24 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6318,7 +6332,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6330,15 +6344,17 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6387,19 +6403,19 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6408,7 +6424,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6419,21 +6435,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6445,17 +6461,15 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6504,19 +6518,19 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6525,7 +6539,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6536,14 +6550,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6556,26 +6570,24 @@
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O38" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6623,7 +6635,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6644,7 +6656,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6655,42 +6667,46 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6714,13 +6730,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6738,19 +6754,19 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6759,7 +6775,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6770,10 +6786,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6796,13 +6812,13 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6829,13 +6845,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6853,7 +6869,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>90</v>
@@ -6874,7 +6890,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6885,10 +6901,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6896,10 +6912,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6908,20 +6924,18 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6946,13 +6960,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6970,13 +6984,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -6988,24 +7002,24 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7013,7 +7027,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>90</v>
@@ -7028,13 +7042,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7061,13 +7075,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7085,10 +7099,10 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>90</v>
@@ -7103,24 +7117,24 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>334</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7131,7 +7145,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7143,13 +7157,13 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7176,13 +7190,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7200,13 +7214,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -7221,29 +7235,29 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>90</v>
@@ -7255,20 +7269,18 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7317,7 +7329,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>342</v>
+        <v>199</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7329,34 +7341,34 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7372,18 +7384,20 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7432,7 +7446,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7444,34 +7458,34 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7484,22 +7498,26 @@
         <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7547,7 +7565,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>293</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7559,16 +7577,16 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7579,10 +7597,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7590,10 +7608,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7602,16 +7620,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7638,13 +7656,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7662,13 +7680,13 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7680,24 +7698,24 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7705,7 +7723,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -7720,13 +7738,13 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7777,10 +7795,10 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -7789,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7798,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7809,14 +7827,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7832,19 +7850,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>183</v>
+        <v>322</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7870,13 +7888,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7894,7 +7912,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7906,66 +7924,62 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7989,13 +8003,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8013,42 +8027,42 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8059,7 +8073,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -8068,20 +8082,18 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8106,13 +8118,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8130,13 +8142,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -8148,32 +8160,32 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>383</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
@@ -8185,18 +8197,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8245,7 +8259,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8260,27 +8274,27 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8291,7 +8305,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8303,13 +8317,13 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8360,13 +8374,13 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
@@ -8378,28 +8392,28 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>394</v>
+        <v>200</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8415,16 +8429,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8475,7 +8489,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8496,21 +8510,21 @@
         <v>365</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8521,7 +8535,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8530,20 +8544,18 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8592,13 +8604,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8610,24 +8622,24 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8650,13 +8662,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8707,7 +8719,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8728,7 +8740,7 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8739,10 +8751,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8768,10 +8780,10 @@
         <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>183</v>
@@ -8812,19 +8824,19 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8845,7 +8857,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8856,44 +8868,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>291</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
+        <v>292</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8941,42 +8955,42 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>418</v>
+        <v>293</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>421</v>
+        <v>133</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8987,7 +9001,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8999,24 +9013,22 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>414</v>
+        <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q59" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9036,13 +9048,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9060,42 +9072,42 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>431</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9118,17 +9130,15 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>245</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9177,7 +9187,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9195,35 +9205,35 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>438</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9235,17 +9245,15 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>225</v>
+        <v>390</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9270,13 +9278,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9294,13 +9302,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -9312,28 +9320,28 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>449</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9352,17 +9360,15 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9411,7 +9417,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9429,24 +9435,24 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>449</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9457,7 +9463,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9466,18 +9472,20 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9526,13 +9534,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9544,24 +9552,24 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9584,13 +9592,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9641,7 +9649,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9662,7 +9670,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9673,10 +9681,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9702,10 +9710,10 @@
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>183</v>
@@ -9746,19 +9754,19 @@
         <v>81</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9779,7 +9787,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9790,46 +9798,44 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>292</v>
+        <v>416</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9877,50 +9883,50 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>293</v>
+        <v>418</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -9935,22 +9941,24 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="R67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9994,42 +10002,42 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>467</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10052,15 +10060,17 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>225</v>
+        <v>433</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10085,13 +10095,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10109,7 +10119,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10127,35 +10137,35 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>205</v>
+        <v>437</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10164,18 +10174,20 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>474</v>
+        <v>217</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10200,13 +10212,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10224,13 +10236,13 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
@@ -10242,28 +10254,28 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10279,19 +10291,19 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10341,7 +10353,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10359,24 +10371,24 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10387,7 +10399,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10396,20 +10408,18 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>283</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10458,13 +10468,13 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
@@ -10479,7 +10489,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10490,10 +10500,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10516,13 +10526,13 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10573,7 +10583,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10594,7 +10604,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10605,10 +10615,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10634,10 +10644,10 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>183</v>
@@ -10690,7 +10700,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10711,7 +10721,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10722,10 +10732,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10841,18 +10851,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>90</v>
@@ -10864,18 +10874,20 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>187</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10924,10 +10936,10 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>90</v>
@@ -10942,24 +10954,24 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>192</v>
+        <v>466</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>495</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10982,13 +10994,13 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>497</v>
+        <v>217</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11015,13 +11027,13 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -11039,7 +11051,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11060,7 +11072,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11071,10 +11083,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11097,13 +11109,13 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>225</v>
+        <v>474</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11130,13 +11142,13 @@
         <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11154,7 +11166,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11175,21 +11187,21 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>507</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11200,7 +11212,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11212,15 +11224,17 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>225</v>
+        <v>479</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -11245,13 +11259,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11269,13 +11283,13 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
@@ -11290,21 +11304,21 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>205</v>
+        <v>483</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11315,7 +11329,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>81</v>
@@ -11327,20 +11341,18 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11364,13 +11376,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11388,13 +11400,13 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
@@ -11409,21 +11421,21 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>522</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11434,7 +11446,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
@@ -11446,13 +11458,13 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>197</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>525</v>
+        <v>198</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11479,13 +11491,13 @@
         <v>81</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -11503,19 +11515,19 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>523</v>
+        <v>199</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
@@ -11524,25 +11536,25 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>528</v>
+        <v>200</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>529</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11561,15 +11573,17 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>531</v>
+        <v>202</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>81</v>
@@ -11594,13 +11608,13 @@
         <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>533</v>
+        <v>81</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -11618,7 +11632,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>530</v>
+        <v>205</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11630,7 +11644,7 @@
         <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>81</v>
@@ -11639,53 +11653,57 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>535</v>
+        <v>200</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>538</v>
+        <v>291</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11733,19 +11751,19 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>537</v>
+        <v>293</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
@@ -11754,21 +11772,21 @@
         <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>540</v>
+        <v>133</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11791,13 +11809,13 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11824,13 +11842,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>546</v>
+        <v>81</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -11848,7 +11866,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11869,21 +11887,21 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>547</v>
+        <v>192</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>548</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11894,7 +11912,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>81</v>
@@ -11906,17 +11924,15 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>283</v>
+        <v>497</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -11965,13 +11981,13 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
@@ -11986,7 +12002,7 @@
         <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -11997,10 +12013,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12023,13 +12039,13 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>202</v>
+        <v>502</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>203</v>
+        <v>503</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12056,13 +12072,13 @@
         <v>81</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>81</v>
+        <v>504</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -12080,7 +12096,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>204</v>
+        <v>501</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12092,7 +12108,7 @@
         <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>81</v>
@@ -12101,32 +12117,32 @@
         <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>205</v>
+        <v>506</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -12138,17 +12154,15 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>208</v>
+        <v>509</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
@@ -12173,13 +12187,13 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12197,19 +12211,19 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>211</v>
+        <v>508</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
@@ -12218,25 +12232,25 @@
         <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12249,25 +12263,25 @@
         <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>291</v>
+        <v>515</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>292</v>
+        <v>516</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>183</v>
+        <v>517</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>184</v>
+        <v>518</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -12292,13 +12306,13 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>81</v>
+        <v>520</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>81</v>
@@ -12316,7 +12330,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>293</v>
+        <v>514</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12328,7 +12342,7 @@
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
@@ -12337,21 +12351,21 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12359,10 +12373,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
@@ -12374,13 +12388,13 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>558</v>
+        <v>217</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12407,13 +12421,13 @@
         <v>81</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>81</v>
@@ -12431,13 +12445,13 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
@@ -12449,24 +12463,24 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>561</v>
+        <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>394</v>
+        <v>528</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>562</v>
+        <v>81</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12477,7 +12491,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>81</v>
@@ -12489,17 +12503,15 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -12524,13 +12536,13 @@
         <v>81</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>81</v>
@@ -12548,13 +12560,13 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>81</v>
@@ -12569,21 +12581,21 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>81</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12606,17 +12618,15 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>225</v>
+        <v>497</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -12641,13 +12651,13 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>575</v>
+        <v>81</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>576</v>
+        <v>81</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -12665,7 +12675,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12686,21 +12696,21 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12723,13 +12733,13 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12756,13 +12766,13 @@
         <v>81</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>81</v>
+        <v>546</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>81</v>
@@ -12780,7 +12790,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12801,21 +12811,21 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>387</v>
+        <v>547</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>81</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12823,10 +12833,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>81</v>
@@ -12838,15 +12848,17 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>581</v>
+        <v>283</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -12895,13 +12907,13 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>81</v>
@@ -12910,27 +12922,27 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>393</v>
+        <v>81</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12953,17 +12965,15 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>588</v>
+        <v>196</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>589</v>
+        <v>197</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13012,33 +13022,965 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
+      <c r="B101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AK101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL101" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AM101" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AN93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO93" t="s" s="2">
+      <c r="AN101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:59:36+00:00</t>
+    <t>2025-10-10T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T14:52:44+00:00</t>
+    <t>2025-10-14T09:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T09:28:59+00:00</t>
+    <t>2025-10-15T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
